--- a/public/PHLIP-Upload.xlsx
+++ b/public/PHLIP-Upload.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>File Name</t>
   </si>
@@ -299,20 +299,52 @@
   </si>
   <si>
     <t>Column order and cell content</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can upload this exact fiile! If you upload an Excel with more than one sheet, make sure the actual data is in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2nd sheet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The application </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">will remove </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the 1st row in the data worksheet as it assumes this is just a header row.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -382,7 +414,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -408,42 +440,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,106 +775,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H10"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="10.83203125" style="13"/>
+    <col min="9" max="9" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -831,68 +886,94 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A14:H14"/>
+  <mergeCells count="14">
     <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A7:H7"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
